--- a/rsc/bonus/bonus_revoicequizlist.xlsx
+++ b/rsc/bonus/bonus_revoicequizlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inseop\AppData\Local\Temp\scp48650\home\ubuntu\revoice\todayQuiz\rsc\bonus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB66AA3-80E7-4863-8585-235C05C150B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096286FB-C64B-434E-9688-2F7F9A3FDBE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="585" windowWidth="26520" windowHeight="14250" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="48">
   <si>
     <t>OPENMENT</t>
   </si>
@@ -100,6 +100,87 @@
   </si>
   <si>
     <t>방울뱀은 이름에 방울이 들어가 있는 것처럼 꼬리 끝에 있는 방울을 흔들어 소리를 낼 수 있어요. 맹독을 지닌 독사이니 소리가 들리면 매우 도망치세요!</t>
+  </si>
+  <si>
+    <t>첫번째 보너스 퀴즈에요. 보너스 퀴즈를 통해 하루에 더 많은 포인트를 얻을 수 있어요! 첫번째 퀴즈인만큼 아주 쉬운 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>인공지능 스피커의 종류가 다양한데요. 그럼 우리나라에서 최초로 출시한 인공지능 스피커는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>KT,기가지니</t>
+  </si>
+  <si>
+    <t>네이버, 클로바</t>
+  </si>
+  <si>
+    <t>SKT, 누구</t>
+  </si>
+  <si>
+    <t>삼성, 빅스비</t>
+  </si>
+  <si>
+    <t>인공지능 스피커, 누구는 2016년 9월 1일에 SK텔레콤이 국내에서 최초로 선보인 인공지능 스피커에요. 최근에는 화면과 카메라까지 달린 누구 네모까지 출시되었다고하네요!</t>
+  </si>
+  <si>
+    <t>강아지와 주인의 대화를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>howgansic</t>
+  </si>
+  <si>
+    <t>방금 소리를 낸 강아지의 견종은, 무엇일까요?</t>
+  </si>
+  <si>
+    <t>푸들</t>
+  </si>
+  <si>
+    <t>시바견</t>
+  </si>
+  <si>
+    <t>슈나우져</t>
+  </si>
+  <si>
+    <t>말티즈</t>
+  </si>
+  <si>
+    <t>방금 들으신 소리는 시바견 하우가, 길고양이한테 간식을 빼앗기는 소리였어요! 하우는 제작자가 실제로 키우고 있는 한쪽 다리를 다친 시바견이랍니다.!  하우를 실제로 보고 싶으시면 유튜브에 시바견 하우라고 검색해보세요!</t>
+  </si>
+  <si>
+    <t>오늘의 보너스 퀴즈는 동물소리에 관련된 퀴즈에요.</t>
+  </si>
+  <si>
+    <t>어떤 동물의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>박찬욱 감독의 해바라기를 아시나요? 오늘은 해바라기에 등장하는 명대사를 준비했어요.</t>
+  </si>
+  <si>
+    <t>잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>heabaragi</t>
+  </si>
+  <si>
+    <t>명대사에서 삐, 처리된 부분에서 말한 대사는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>군만두만 먹인 이유가 뭐냐</t>
+  </si>
+  <si>
+    <t>운동을 열심히 했는데</t>
+  </si>
+  <si>
+    <t>감옥에 다녀왔는데</t>
+  </si>
+  <si>
+    <t>울면서 후회하고 다짐했는데</t>
+  </si>
+  <si>
+    <t>많은 사람들이 인상깊다고 공감했던, 해바라기에 등장하는 김래원 배우님의 명대사에요. 오늘은 영화 한 편 어떠신가요?</t>
   </si>
 </sst>
 </file>
@@ -465,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:L41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,37 +616,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -573,37 +651,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -611,37 +689,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -649,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -687,37 +765,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -725,37 +803,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -790,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">

--- a/rsc/bonus/bonus_revoicequizlist.xlsx
+++ b/rsc/bonus/bonus_revoicequizlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\rsc\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096286FB-C64B-434E-9688-2F7F9A3FDBE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C14EC-72C3-4ECC-B7F2-0D0F2DF65C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
   <si>
     <t>OPENMENT</t>
   </si>
@@ -73,121 +73,1002 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rattlesnake</t>
+  </si>
+  <si>
+    <t>이 소리는 어떤 동물이 내는 소리일까요?</t>
+  </si>
+  <si>
+    <t>도마뱀</t>
+  </si>
+  <si>
+    <t>방울뱀</t>
+  </si>
+  <si>
+    <t>제비</t>
+  </si>
+  <si>
+    <t>물총새</t>
+  </si>
+  <si>
+    <t>방울뱀은 이름에 방울이 들어가 있는 것처럼 꼬리 끝에 있는 방울을 흔들어 소리를 낼 수 있어요. 맹독을 지닌 독사이니 소리가 들리면 매우 도망치세요!</t>
+  </si>
+  <si>
+    <t>첫번째 보너스 퀴즈에요. 보너스 퀴즈를 통해 하루에 더 많은 포인트를 얻을 수 있어요! 첫번째 퀴즈인만큼 아주 쉬운 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>인공지능 스피커의 종류가 다양한데요. 그럼 우리나라에서 최초로 출시한 인공지능 스피커는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>KT,기가지니</t>
+  </si>
+  <si>
+    <t>네이버, 클로바</t>
+  </si>
+  <si>
+    <t>SKT, 누구</t>
+  </si>
+  <si>
+    <t>삼성, 빅스비</t>
+  </si>
+  <si>
+    <t>인공지능 스피커, 누구는 2016년 9월 1일에 SK텔레콤이 국내에서 최초로 선보인 인공지능 스피커에요. 최근에는 화면과 카메라까지 달린 누구 네모까지 출시되었다고하네요!</t>
+  </si>
+  <si>
+    <t>강아지와 주인의 대화를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>howgansic</t>
+  </si>
+  <si>
+    <t>방금 소리를 낸 강아지의 견종은, 무엇일까요?</t>
+  </si>
+  <si>
+    <t>푸들</t>
+  </si>
+  <si>
+    <t>시바견</t>
+  </si>
+  <si>
+    <t>슈나우져</t>
+  </si>
+  <si>
+    <t>말티즈</t>
+  </si>
+  <si>
+    <t>방금 들으신 소리는 시바견 하우가, 길고양이한테 간식을 빼앗기는 소리였어요! 하우는 제작자가 실제로 키우고 있는 한쪽 다리를 다친 시바견이랍니다.!  하우를 실제로 보고 싶으시면 유튜브에 시바견 하우라고 검색해보세요!</t>
+  </si>
+  <si>
     <t>오늘의 보너스 퀴즈는 동물소리에 관련된 퀴즈에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떤 동물의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rattlesnake</t>
-  </si>
-  <si>
-    <t>이 소리는 어떤 동물이 내는 소리일까요?</t>
-  </si>
-  <si>
-    <t>도마뱀</t>
-  </si>
-  <si>
-    <t>방울뱀</t>
-  </si>
-  <si>
-    <t>제비</t>
-  </si>
-  <si>
-    <t>물총새</t>
-  </si>
-  <si>
-    <t>방울뱀은 이름에 방울이 들어가 있는 것처럼 꼬리 끝에 있는 방울을 흔들어 소리를 낼 수 있어요. 맹독을 지닌 독사이니 소리가 들리면 매우 도망치세요!</t>
-  </si>
-  <si>
-    <t>첫번째 보너스 퀴즈에요. 보너스 퀴즈를 통해 하루에 더 많은 포인트를 얻을 수 있어요! 첫번째 퀴즈인만큼 아주 쉬운 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>어떤 동물의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>박찬욱 감독의 해바라기를 아시나요? 오늘은 해바라기에 등장하는 명대사를 준비했어요.</t>
+  </si>
+  <si>
+    <t>잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>heabaragi</t>
+  </si>
+  <si>
+    <t>명대사에서 삐, 처리된 부분에서 말한 대사는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>군만두만 먹인 이유가 뭐냐</t>
+  </si>
+  <si>
+    <t>운동을 열심히 했는데</t>
+  </si>
+  <si>
+    <t>감옥에 다녀왔는데</t>
+  </si>
+  <si>
+    <t>울면서 후회하고 다짐했는데</t>
+  </si>
+  <si>
+    <t>많은 사람들이 인상깊다고 공감했던, 해바라기에 등장하는 김래원 배우님의 명대사에요. 오늘은 영화 한 편 어떠신가요?</t>
+  </si>
+  <si>
+    <t>여러분 혹시 밤 하늘을 자주 보시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 별들이 떠있는데요, 표면 온도가 가장 높은 별의 색깔은 무슨 색일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별은 표면온도에 따라 다양한 색깔이 관측됩니다. 뜨거운 별에서는 주로 파란색의 빛이 방출되고 차가운 별은 빨간색의 파장을 가진 빛을 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라면 좋아하시나요? 어떤 라면을 자주드시나요? 오늘의 보너스 퀴즈는 라면에 관한 퀴즈에요. </t>
+  </si>
+  <si>
+    <t>우리나라에서 가장 많이 팔린 라면은 어떤 라면일까요?</t>
+  </si>
+  <si>
+    <t>삼양라면</t>
+  </si>
+  <si>
+    <t>진라면</t>
+  </si>
+  <si>
+    <t>신라면</t>
+  </si>
+  <si>
+    <t>불닭볶음면</t>
+  </si>
+  <si>
+    <t>우리나라의 라면 판매 순위는 2018년 기준, 농심의 신라면이, 판매금액 3024억원으로 1위를 차지했습니다. 오늘 야식으로 라면은 어떠세요?</t>
+  </si>
+  <si>
+    <t>당구를 좋아하시나요? 오늘은 당구에 관련된 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>당구용어인 맛세이를 아시나요? 당구에서, 찍어치기 기술을 일컫는 말입니다. 그렇다면 맛세이의 어원은 어디일까요?</t>
+  </si>
+  <si>
+    <t>프랑스</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>영국</t>
+  </si>
+  <si>
+    <t>맛세이는, 프랑스어, 마세,에서 유래된 말로, 마세는 마사지하다라는 의미를 가지고 있습니다. 발음 때문에 일본에서 유래된 말로 착각하는 경우가 많습니다.  300 이하는 맛세이 금지니 조심하셔야 해요!</t>
+  </si>
+  <si>
+    <t>만화 좋아하시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만화 주제가의 한 부분을 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>kinnikuman</t>
+  </si>
+  <si>
+    <t>방금 들은 노래는 어떤 만화에서 나온 노래일까요?</t>
+  </si>
+  <si>
+    <t>세일러문</t>
+  </si>
+  <si>
+    <t>쾌걸근육맨 2세</t>
+  </si>
+  <si>
+    <t>디지몬 어드벤쳐</t>
+  </si>
+  <si>
+    <t>나루토</t>
+  </si>
+  <si>
+    <t>쾌걸근육맨 2세의 오프닝 곡 질풍가도 였습니다. 희망차고 도전적인 가사 덕분에 애니메이션 오프닝임에도 많은 곳에서 널리 쓰이고 있으며, 한국에서 만든 애니메이션 음악 중에서 크게 성공한 곡이라는 평을 받고 있어요. 오늘 질풍가도 노래와 함께 희망찬 하루를 보내세요!</t>
+  </si>
+  <si>
+    <t>야구 좋아하시나요? 오늘은 야구에 관련된 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>어떤 야구단의 응원가를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>hanwhaegles</t>
+  </si>
+  <si>
+    <t>방금 들은 응원가는 어떤 구단의 응원가일까요?</t>
+  </si>
+  <si>
+    <t>한화 이글스</t>
+  </si>
+  <si>
+    <t>두산 베어스</t>
+  </si>
+  <si>
+    <t>삼성 라이온스</t>
+  </si>
+  <si>
+    <t>SK 하이닉스</t>
+  </si>
+  <si>
+    <t>나는 행복합니다는, 한화 이글스의 대표적인 응원가로, 경기에서 지고 있어도 나는 행복합니다를 열창하는 한화팬들의 모습은 많은 프로야구팬들의 가슴을 울렸습니다.</t>
+  </si>
+  <si>
+    <t>날씨가 시원하네요! 오늘의 퀴즈를 찾아주셔서 감사합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 한 장면의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>avengers_tor</t>
+  </si>
+  <si>
+    <t>방금 들은 대사는 어떤 영화에서 나온 대사일까요?</t>
+  </si>
+  <si>
+    <t>추격자</t>
+  </si>
+  <si>
+    <t>캡틴 아메리카, 시빌 워</t>
+  </si>
+  <si>
+    <t>어벤져스, 인피니티 워</t>
+  </si>
+  <si>
+    <t>백종원의 골목식당</t>
+  </si>
+  <si>
+    <t>어벤져스 인피니티 워에서 천둥의 신 토르가 새로운 무기인 스톰 브레이커를 가지고 지구로 귀환하는 명장면이었죠. 역대급 연출이라며 많은 사람들이 호평한 장면이었습니다…</t>
+  </si>
+  <si>
+    <t>요즈음 날씨가 너무 좋아요! 오늘은 날씨에 관련된 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>기상현상의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>strom</t>
+  </si>
+  <si>
+    <t>번개가 발생할 때, 소리만을 일컫는 말이 따로 있어요. 방금 들으신 번개의 소리만을 뜻하는 말은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>뇌격</t>
+  </si>
+  <si>
+    <t>천둥</t>
+  </si>
+  <si>
+    <t>소닉붐</t>
+  </si>
+  <si>
+    <t>벼락</t>
+  </si>
+  <si>
+    <t>구름에서 전기의 방전이일어나 만들어진 불꽃을 번개라고 해요. 번개가 칠 때, 주변의 공기의 온도가 3만도 가까이 올라가는데요, 이 때, 순간적으로 공기가 팽창하며 들리는 파열음을, 천둥소리, 또는 우레,라고 해요! 또, 벼락이라는 말은 번개가 떨어져 어떤 물체에 맞는 것을 말한다고 하네요, 번개, 천둥, 벼락, 모두 다른 뜻을가지고 있었네요!</t>
+  </si>
+  <si>
+    <t>요즘 인터넷에는 많은 다양한 콘텐츠들이 올라오는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 서비스 제공자가 특정 콘텐츠를 데이터요금을 받지 않고 제공하는 것을 뜻하는 용어는 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로레이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로래이팅은 ISP가 특정 서비스의 트래픽을 사용자의 데이터 요금에서 계산하지 않거나 다른 서비스보다 저렴하게 계산되도록 하는 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분 오페라 보신 적 있으신가요? 오늘은 오페라에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오페라의 여자 주인공을 부르는 말은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리모 우오모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스트라토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세콘다 돈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리마 돈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리마 돈나는 제1의 여인이라는 이탈리아어로 오페라의 여자 주인공을 가리킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분 심리학에 관심있으신가요? 오늘은 범죄 심리학에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사소한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무질서를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방치하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높으므로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경범죄로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발본색원해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범죄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심리학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이론은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇일까요?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르테르 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 유리창 이론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코쿠닝 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 유리창 이론은 깨진 유리창 하나를 방치해 두면 그로부터 범죄가 확산된다는 이론입니다.</t>
+  </si>
+  <si>
+    <t>오늘은 문화재에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계문화유산으로 지정되지 않은 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈민정음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종묘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원화성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창덕궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈민정음은 세계문화유산이 아니라 세계기록유산으로 1997년에 지정되었습니다.  유니스코 유산은 세계문화유산, 세계기록유산, 인류무형문화유산으로 구분됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 상식 문제를 하나 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼인관계를 유지하지만 부부가 서로의 삶에 간섭하지 않고 독립적으로 사는 풍습을 무엇이라고 할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼윈도 부부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼을 졸업한다'는  뜻인 졸혼에 대한 설명입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슬람신도를 가리키는 무슬림이라는 용어는 ‘절대순종하는 이’라는 의미를 지니고 있는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>인공지능 스피커의 종류가 다양한데요. 그럼 우리나라에서 최초로 출시한 인공지능 스피커는 무엇일까요?</t>
-  </si>
-  <si>
-    <t>KT,기가지니</t>
-  </si>
-  <si>
-    <t>네이버, 클로바</t>
-  </si>
-  <si>
-    <t>SKT, 누구</t>
-  </si>
-  <si>
-    <t>삼성, 빅스비</t>
-  </si>
-  <si>
-    <t>인공지능 스피커, 누구는 2016년 9월 1일에 SK텔레콤이 국내에서 최초로 선보인 인공지능 스피커에요. 최근에는 화면과 카메라까지 달린 누구 네모까지 출시되었다고하네요!</t>
-  </si>
-  <si>
-    <t>강아지와 주인의 대화를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>howgansic</t>
-  </si>
-  <si>
-    <t>방금 소리를 낸 강아지의 견종은, 무엇일까요?</t>
-  </si>
-  <si>
-    <t>푸들</t>
-  </si>
-  <si>
-    <t>시바견</t>
-  </si>
-  <si>
-    <t>슈나우져</t>
-  </si>
-  <si>
-    <t>말티즈</t>
-  </si>
-  <si>
-    <t>방금 들으신 소리는 시바견 하우가, 길고양이한테 간식을 빼앗기는 소리였어요! 하우는 제작자가 실제로 키우고 있는 한쪽 다리를 다친 시바견이랍니다.!  하우를 실제로 보고 싶으시면 유튜브에 시바견 하우라고 검색해보세요!</t>
-  </si>
-  <si>
-    <t>오늘의 보너스 퀴즈는 동물소리에 관련된 퀴즈에요.</t>
-  </si>
-  <si>
-    <t>어떤 동물의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>박찬욱 감독의 해바라기를 아시나요? 오늘은 해바라기에 등장하는 명대사를 준비했어요.</t>
-  </si>
-  <si>
-    <t>잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>heabaragi</t>
-  </si>
-  <si>
-    <t>명대사에서 삐, 처리된 부분에서 말한 대사는 무엇일까요?</t>
-  </si>
-  <si>
-    <t>군만두만 먹인 이유가 뭐냐</t>
-  </si>
-  <si>
-    <t>운동을 열심히 했는데</t>
-  </si>
-  <si>
-    <t>감옥에 다녀왔는데</t>
-  </si>
-  <si>
-    <t>울면서 후회하고 다짐했는데</t>
-  </si>
-  <si>
-    <t>많은 사람들이 인상깊다고 공감했던, 해바라기에 등장하는 김래원 배우님의 명대사에요. 오늘은 영화 한 편 어떠신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슬림이 먹고 쓸 수 있는 제품을 총칭하는 말은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할랄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할랄(halal)은 아랍어로 '허용된 것'이란 뜻으로 무슬림이 먹고 쓸 수 있는 제품을 총칭합니다 반대로 허용되지 않는 것은 하람(haram)이라고 부릅니다. 돼지고기나 알코올 및 이를 이용한 가공품, 이슬람 율법에 따라 도축되지 않은 고기 등은 모두 하람에 속합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 마케팅 기법에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업이 고객의 수요를 의도적으로 감소시키는 마케팅 기법은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디마케팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니치마케팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버즈마케팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데카르트마케팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디마케팅(demarketing)은 고의로 고객의 수요를 줄이는 마케팅 기법으로, 제품에 대한 이미지와 브랜드 가치를 향상시키고 특정 고객들의 충성도를 강화시키는 효과를 노립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 점점 더워지네요!</t>
+  </si>
+  <si>
+    <t>구름 아래에서는 관측할 수 없는 구름 위에서 치며 규모가 일번 번개보다 훨씬 큰 번개가 있다고 해요. 이 번개의 이름은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>사이오닉 스톰</t>
+  </si>
+  <si>
+    <t>메가번개</t>
+  </si>
+  <si>
+    <t>파워 번개</t>
+  </si>
+  <si>
+    <t>슈퍼 번개</t>
+  </si>
+  <si>
+    <t>메가번개는 구름보다, 위에서 치는 번개의 일종으로, 예전부터 여러 비행사들에 의해 보고되었다고해요. 현대에 들어오고 나서야, 메가번개를 우주에서 촬영하는 것에 성공함으로써 실존한다는 것이 밝혀졌다고 해요. 구름 아래에서 관측할 수 없고, 지속 시간이 매우 짧기 때문에 아직까지 메가번개에 대해 잘 알려진 사실은 없다고 해요. 다만 일반 번개와 비교할 수 없을 정도로 에너지량과 그 규모가 크다고 하네요.</t>
+  </si>
+  <si>
+    <t>세상이 많이 발전했지만 아직도 범죄는 끊이지 않는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인질이 인질범에게 동조되어 인질범을 이해하고 호감을 나타내는 현상을 무엇이라고 할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일 마스크 증후군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탕달 증후군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리마 증후군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톡홀름 증후군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톡홀름 증후군은 공포심으로 인해 극한 상황을 유발한 대상에게 긍정적인 감정을 가지는 현상입니다. 범죄심리학 용어로, 인질이 인질범에게 동화 혹은 동조하는 비합리적인 현상을 뜻합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 의학과 관련된 퀴즈를 분비했어요.</t>
+  </si>
+  <si>
+    <t>후천성 면역 결핍증을 일으키는 에이즈 바이러스가 파괴하는 림프구는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>T 림프구</t>
+  </si>
+  <si>
+    <t>A 림프구</t>
+  </si>
+  <si>
+    <t>C 림프구</t>
+  </si>
+  <si>
+    <t>H 림프구</t>
+  </si>
+  <si>
+    <t>T림프구는 백혈구의 일종으로 림프구 중 3/4, 백혈구 중 3/10을 차지하고 있다고 합니다. 주로 세포성 면역에 관여하는데, 후천선 면역 결핌증 에이즈는 이 면역계 T림프구를 파괴하는 질환이라고 합니다.</t>
+  </si>
+  <si>
+    <t>국회는 삼권분립의 자유민주주의 정치체제 아래에서 입법기능을 담당하는 국가권력기관인데요,</t>
+  </si>
+  <si>
+    <t>다음 중 국회의 권한이 아닌 것은 어떤 것일까요?</t>
+  </si>
+  <si>
+    <t>탄핵소추권</t>
+  </si>
+  <si>
+    <t>긴급명령권</t>
+  </si>
+  <si>
+    <t>예산안 심의,확정권</t>
+  </si>
+  <si>
+    <t>예비비 지출승인권</t>
+  </si>
+  <si>
+    <t>긴급명령권은 대통령의 권한으로 국회의 집회가 불가능한 경우에 한해 예외적으로 인정되는 국가긴급권의 일종입니다.</t>
+  </si>
+  <si>
+    <t>요즈음 SNS가 굉장히 활발한데요. 오늘은 SNS에 관한 퀴즈를 준비했어요.</t>
+  </si>
+  <si>
+    <t>SNS상의 댓글 및 좋아요 수치 등은 어떤 미디어에 속할까요?</t>
+  </si>
+  <si>
+    <t>오운드 미디어</t>
+  </si>
+  <si>
+    <t>쉐어드 미디어</t>
+  </si>
+  <si>
+    <t>언드 미디어</t>
+  </si>
+  <si>
+    <t>페이드 미디어</t>
+  </si>
+  <si>
+    <t>언드 미디어란 소셜미디어 상의 댓글 및 좋아요, 공유 등의 인터랙션 수치나 스크랩, 리뷰 등 소비자의 재생산성이 포함된 콘텐츠를 의미합니다.</t>
+  </si>
+  <si>
+    <t>여러분 평소에 드라마 챙겨보시나요?</t>
+  </si>
+  <si>
+    <t>드라마를 보면 중간에 광고가 나오는 것을 볼 수 있는데요, 드라마나 예능 프로그램의 영상을 광고로 활용하는 광고 기법은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>푸티지 광고</t>
+  </si>
+  <si>
+    <t>텍스트 광고</t>
+  </si>
+  <si>
+    <t>리워드 광고</t>
+  </si>
+  <si>
+    <t>인앱 광고</t>
+  </si>
+  <si>
+    <t>푸티지 광고는 드라마나 예능의 영상을 재편집하여 다른 음성을 삽입하는 등의 방식으로 제작이 됩니다. </t>
+  </si>
+  <si>
+    <t>단군 신화는 우리 민족의 시조이고 고조선의 창업왕인 단군에 관한 신화인데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단군신화가 기록되지 않은 책은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국여지승람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종실록지리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼국유사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼국사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[삼국사기]는 단군신화를 전하지 않으며 [단군신화]는 [삼국유사], [제왕운기], [응제시주], [동국여지승람], [세종실록지리지] 등에 기록돼 있습니다.</t>
+  </si>
+  <si>
+    <t>여러분은 SNS를 많이 활용하시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS에서 타인의 행복한 일상을 보고 느끼는 상대적 박탈감을 느끼는 용어는 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝콘 브레인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초미세 지루함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인 우울증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노모포비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페인 우울증이란 사회관계망서비스(SNS)인 카카오스토리, 페이스북, 인스타그램의 앞 글자인 카·페·인에 우울증을 합친 신조어로써,  SNS에 소개된 타인의 행복한 모습을 부러워하며 상대적 박탈감과 우울감을 느끼는 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국의 주권은 국민에게 있고, 모든 권력은 국민으로부터 나온다… , 오늘은 대한민국의 오대 국경일중에 하나인 7월 17일, 제헌절입니다.!</t>
+  </si>
+  <si>
+    <t>다음 중 대한민국 5대 국경일이 아닌 것은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>삼일절</t>
+  </si>
+  <si>
+    <t>광복절</t>
+  </si>
+  <si>
+    <t>한글날</t>
+  </si>
+  <si>
+    <t>현충일</t>
+  </si>
+  <si>
+    <t>대한민국의 오대 국경일은 삼일절, 제헌절, 광복절, 개천절, 한글날이 있습니다. 현충일은 경축일이 아닌, 조의를 표하는 날로, 순국 선열과 호국영령을 기리는 날입니다. 그래서 현충일에는 조기를 게양하지요. 국경일인 제헌절은 태극기를  게양하는 날입니다.! 태극기를 게양하며 오늘을 기념해보는건 어떠세요?</t>
+  </si>
+  <si>
+    <t>오늘은 뉴스에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특종 뉴스나 기사를 타 매체보다 앞서 독점 입수해서 먼저 보도하는 것을 무엇이라고 할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥스로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠바고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프더레코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스쿠프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스쿠프는 언론 매체가 경쟁 상대보다 먼저 특종기사를 보도하는 것으로, 뉴스소스 측이 감추거나 왜곡시키는 사건에 대해 폭로하는 것이나 널리 알려진 사실이지만 중요하게 여겨지지 않는 사항에서 새로운 문제점을 찾아내 재조명함으로써 그 의미를 새롭게 밝혀주는 것을 의미하기도 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즈음 출산률이 낮아지고 있어 많은 문제가 생기고 있는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 의도적으로 자녀를 두지 않는 맞벌이 부부를 뜻하는 것은?</t>
+  </si>
+  <si>
+    <t>딘트족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딩크족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니트족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀크족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답은 딩크족 이었습니다. 니트족은 취업은 물론 학업이나 가사일을 할 의욕이 전혀 없는 15~34세의 젊은 층이고,  듀크족은 아이가 있는 맞벌이 부부입니다. 딘트족은 수입은 두 배이나 돈 쓸 시간이 없는 신세대 맞벌이 부부를 의미합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +1081,37 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -226,9 +1138,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,34 +1546,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -651,37 +1581,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -689,37 +1619,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -727,1421 +1657,1214 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>20</v>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12">
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>20</v>
+      <c r="L12" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" t="s">
-        <v>20</v>
+      <c r="L17" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
+      <c r="B20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="1">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22">
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="1">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
-        <v>20</v>
+      <c r="L22" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="1">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="1">
         <v>2</v>
       </c>
-      <c r="L25" t="s">
-        <v>20</v>
+      <c r="L25" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="1">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="1">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="1">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="1">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32">
+      <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="1">
         <v>2</v>
       </c>
-      <c r="L32" t="s">
-        <v>20</v>
+      <c r="L32" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>20</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">

--- a/rsc/bonus/bonus_revoicequizlist.xlsx
+++ b/rsc/bonus/bonus_revoicequizlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\rsc\bonus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C14EC-72C3-4ECC-B7F2-0D0F2DF65C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756BB02-11AD-4758-97E8-C8EFA5B476AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
   <si>
     <t>OPENMENT</t>
   </si>
@@ -224,523 +224,389 @@
     <t>우리나라의 라면 판매 순위는 2018년 기준, 농심의 신라면이, 판매금액 3024억원으로 1위를 차지했습니다. 오늘 야식으로 라면은 어떠세요?</t>
   </si>
   <si>
+    <t>당구용어인 맛세이를 아시나요? 당구에서, 찍어치기 기술을 일컫는 말입니다. 그렇다면 맛세이의 어원은 어디일까요?</t>
+  </si>
+  <si>
+    <t>프랑스</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>영국</t>
+  </si>
+  <si>
+    <t>맛세이는, 프랑스어, 마세,에서 유래된 말로, 마세는 마사지하다라는 의미를 가지고 있습니다. 발음 때문에 일본에서 유래된 말로 착각하는 경우가 많습니다.  300 이하는 맛세이 금지니 조심하셔야 해요!</t>
+  </si>
+  <si>
+    <t>만화 좋아하시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만화 주제가의 한 부분을 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
+  </si>
+  <si>
+    <t>kinnikuman</t>
+  </si>
+  <si>
+    <t>방금 들은 노래는 어떤 만화에서 나온 노래일까요?</t>
+  </si>
+  <si>
+    <t>세일러문</t>
+  </si>
+  <si>
+    <t>쾌걸근육맨 2세</t>
+  </si>
+  <si>
+    <t>디지몬 어드벤쳐</t>
+  </si>
+  <si>
+    <t>나루토</t>
+  </si>
+  <si>
+    <t>쾌걸근육맨 2세의 오프닝 곡 질풍가도 였습니다. 희망차고 도전적인 가사 덕분에 애니메이션 오프닝임에도 많은 곳에서 널리 쓰이고 있으며, 한국에서 만든 애니메이션 음악 중에서 크게 성공한 곡이라는 평을 받고 있어요. 오늘 질풍가도 노래와 함께 희망찬 하루를 보내세요!</t>
+  </si>
+  <si>
+    <t>요즘 인터넷에는 많은 다양한 콘텐츠들이 올라오는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분 오페라 보신 적 있으신가요? 오늘은 오페라에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오페라의 여자 주인공을 부르는 말은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리모 우오모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스트라토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세콘다 돈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리마 돈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 문화재에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계문화유산으로 지정되지 않은 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈민정음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종묘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원화성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창덕궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈민정음은 세계문화유산이 아니라 세계기록유산으로 1997년에 지정되었습니다.  유니스코 유산은 세계문화유산, 세계기록유산, 인류무형문화유산으로 구분됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼윈도 부부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슬림이 먹고 쓸 수 있는 제품을 총칭하는 말은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할랄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍을 해보신 적이 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수 많은 개발 언어가 있는데요. 다음 중, 개발 언어가 아닌 것은 무엇일까요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">깃허브는 개발 언어가 아닌, 개발자들의 대표적인 소스 코드 저장소입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에는 정말 많은 사람들이 살고있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중, 세계에서 인구 수가 가장 많은 대륙은 어디일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아메리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아는 가장 인구 수가 많은 대륙입니다. 중국, 인도 등을 포함하여 인구 수 상위 10개국 가운데 6개국이 아시아의 국가라고하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리스 로마 신화를 잘 알고 계신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리스 신화 속, 영웅 중, 아킬레스라는 영웅이 있었는데요. 신화 속 아킬레스는 어떻게 죽었을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절벽에서 떨어져서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물이 무너져서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벼락을 맞아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아킬레스는 발뒤꿈치를 제외하고는 불사신이지만, 운이 없게도 트로이 전쟁에서 발 뒤꿈치에 트로이의 왕자 파리스가 쏜 화살을 맞고 사망했다고 합니다. 아킬레스 건이라는 이름은 이 신화에서 유래되었다고하네요.!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 뒤꿈치에 화살을 맞아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 들은 노래는 겨울왕국의 대표적인 음악인데요. 다음 중, 겨울왕국의 등장인물이 아닌 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letitgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스벤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스토프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아렌델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아렌델은 겨울왕국의 배경이 되는 왕국입니다. 실제로 아렌델은 노르웨이의 한 도시의 지명으로, 겨울왕국의 배경 또한 노르웨이 북부로 추정된다고 하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 서비스 제공자가 특정 콘텐츠를 데이터 요금을 받지 않고 제공하는 것을 뜻하는 용어는 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리 인터넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로 레이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로 레이팅은 사용자의 데이터 요금에서 계산하지 않거나, 다른 서비스보다 저렴하게 계산되도록 하는 것입니다. 대체로 통신사의 어플리케이션을 이용할 때, 데이터 요금이 나오지 않는 경우가 대표적인 제로 레이팅이라고 할 수 있겠네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프리마 돈나는 제 1의 여인이라는 이탈리아어로, 오페라의 여자 주인공을 가리킵니다. 프리. 마돈나가 아니라, 프리마. 돈나라는 것도 알고 계셨나요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 물고기에 대해 얼마나 알고 계신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중, 바다에 사는 물고기가 아닌 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가물치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가물치는 우리나라의 대표적인 민물고기로, 흐르지 않는 연못, 저수지, 늪지 등에서 서식하는 민물고기입니다. 우리나라에서는 토종 물고기지만 해외에서는 포악한 외래 어종으로 취급되어 골치를 앓고 있다고 하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼인관계를 유지하지만 부부가 서로의 삶에 간섭하지 않고 독립적으로 사는 것을 무엇이라고 할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼을 졸업한다'는 뜻인, 졸혼에 대한 설명입니다. 이혼하지 않은 부부가 서로 간섭하지 않고 독립적으로 사는 것을 말하는 표준어라고 하네요. 쇼윈도 부부는 사이가 좋지 않지만, 남들 앞에서는 사이 좋은 부부처럼 행동하는 것을 말한다고 하네요! 부부간에 사이 좋게 지내시길 바랄게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구 좋아하시나요? 오늘은 손흥민 선수에 대한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중, 손흥민 선수가 소속되어 있던 팀이 아닌 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바이에른 뮌헨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버쿠젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토트넘 핫스퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함부르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손흥민 선수는 함부르크에서 유망주로 활약하며, 데뷔한 후, 독일 분데스리가인 명문구단 레버쿠젠으로 구단 역대 최고 이적료를 기록하며 영입했습니다. 현재는, 토트넘 핫스퍼에서 엄청난 활약을 보여주고 있습니다. 앞으로도 많은 활약을 기대할게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어를 잘하시나요? 오늘은 토익 시험에 대한 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 중, 우리나라에서 토익 시험을 주관하는 곳은 어디일까요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해커스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리나라에서 토익을 주관하는 주관사는 YBM으로, 토익 시험을 주관하고 있습니다. ETS는 토익문제를 출제하는 미국의 출제 기관인 것도 알고계셨나요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슬람 신도를 가리키는 무슬림이라는 용어는 ‘절대순종하는 이’라는 의미를 지니고 있는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할랄은 아랍어로 '허용된 것'이란 뜻으로 무슬림이 먹고 쓸 수 있는 제품을 총칭합니다 반대로 허용되지 않는 것은 하람이라고 부릅니다. 돼지고기나 알코올 및 이를 이용한 가공품, 이슬람 율법에 따라 도축되지 않은 고기 등은 모두 하람에 속합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>당구를 좋아하시나요? 오늘은 당구에 관련된 퀴즈를 준비했어요.</t>
-  </si>
-  <si>
-    <t>당구용어인 맛세이를 아시나요? 당구에서, 찍어치기 기술을 일컫는 말입니다. 그렇다면 맛세이의 어원은 어디일까요?</t>
-  </si>
-  <si>
-    <t>프랑스</t>
-  </si>
-  <si>
-    <t>일본</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>영국</t>
-  </si>
-  <si>
-    <t>맛세이는, 프랑스어, 마세,에서 유래된 말로, 마세는 마사지하다라는 의미를 가지고 있습니다. 발음 때문에 일본에서 유래된 말로 착각하는 경우가 많습니다.  300 이하는 맛세이 금지니 조심하셔야 해요!</t>
-  </si>
-  <si>
-    <t>만화 좋아하시나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만화 주제가의 한 부분을 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>kinnikuman</t>
-  </si>
-  <si>
-    <t>방금 들은 노래는 어떤 만화에서 나온 노래일까요?</t>
-  </si>
-  <si>
-    <t>세일러문</t>
-  </si>
-  <si>
-    <t>쾌걸근육맨 2세</t>
-  </si>
-  <si>
-    <t>디지몬 어드벤쳐</t>
-  </si>
-  <si>
-    <t>나루토</t>
-  </si>
-  <si>
-    <t>쾌걸근육맨 2세의 오프닝 곡 질풍가도 였습니다. 희망차고 도전적인 가사 덕분에 애니메이션 오프닝임에도 많은 곳에서 널리 쓰이고 있으며, 한국에서 만든 애니메이션 음악 중에서 크게 성공한 곡이라는 평을 받고 있어요. 오늘 질풍가도 노래와 함께 희망찬 하루를 보내세요!</t>
-  </si>
-  <si>
-    <t>야구 좋아하시나요? 오늘은 야구에 관련된 퀴즈를 준비했어요.</t>
-  </si>
-  <si>
-    <t>어떤 야구단의 응원가를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>hanwhaegles</t>
-  </si>
-  <si>
-    <t>방금 들은 응원가는 어떤 구단의 응원가일까요?</t>
-  </si>
-  <si>
-    <t>한화 이글스</t>
-  </si>
-  <si>
-    <t>두산 베어스</t>
-  </si>
-  <si>
-    <t>삼성 라이온스</t>
-  </si>
-  <si>
-    <t>SK 하이닉스</t>
-  </si>
-  <si>
-    <t>나는 행복합니다는, 한화 이글스의 대표적인 응원가로, 경기에서 지고 있어도 나는 행복합니다를 열창하는 한화팬들의 모습은 많은 프로야구팬들의 가슴을 울렸습니다.</t>
-  </si>
-  <si>
-    <t>날씨가 시원하네요! 오늘의 퀴즈를 찾아주셔서 감사합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화의 한 장면의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>avengers_tor</t>
-  </si>
-  <si>
-    <t>방금 들은 대사는 어떤 영화에서 나온 대사일까요?</t>
-  </si>
-  <si>
-    <t>추격자</t>
-  </si>
-  <si>
-    <t>캡틴 아메리카, 시빌 워</t>
-  </si>
-  <si>
-    <t>어벤져스, 인피니티 워</t>
-  </si>
-  <si>
-    <t>백종원의 골목식당</t>
-  </si>
-  <si>
-    <t>어벤져스 인피니티 워에서 천둥의 신 토르가 새로운 무기인 스톰 브레이커를 가지고 지구로 귀환하는 명장면이었죠. 역대급 연출이라며 많은 사람들이 호평한 장면이었습니다…</t>
-  </si>
-  <si>
-    <t>요즈음 날씨가 너무 좋아요! 오늘은 날씨에 관련된 퀴즈를 준비했어요.</t>
-  </si>
-  <si>
-    <t>기상현상의 소리를 들려드릴거에요. 잘 듣고 퀴즈를 풀어보세요?</t>
-  </si>
-  <si>
-    <t>strom</t>
-  </si>
-  <si>
-    <t>번개가 발생할 때, 소리만을 일컫는 말이 따로 있어요. 방금 들으신 번개의 소리만을 뜻하는 말은 무엇일까요?</t>
-  </si>
-  <si>
-    <t>뇌격</t>
-  </si>
-  <si>
-    <t>천둥</t>
-  </si>
-  <si>
-    <t>소닉붐</t>
-  </si>
-  <si>
-    <t>벼락</t>
-  </si>
-  <si>
-    <t>구름에서 전기의 방전이일어나 만들어진 불꽃을 번개라고 해요. 번개가 칠 때, 주변의 공기의 온도가 3만도 가까이 올라가는데요, 이 때, 순간적으로 공기가 팽창하며 들리는 파열음을, 천둥소리, 또는 우레,라고 해요! 또, 벼락이라는 말은 번개가 떨어져 어떤 물체에 맞는 것을 말한다고 하네요, 번개, 천둥, 벼락, 모두 다른 뜻을가지고 있었네요!</t>
-  </si>
-  <si>
-    <t>요즘 인터넷에는 많은 다양한 콘텐츠들이 올라오는데요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 서비스 제공자가 특정 콘텐츠를 데이터요금을 받지 않고 제공하는 것을 뜻하는 용어는 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트래픽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로레이팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로래이팅은 ISP가 특정 서비스의 트래픽을 사용자의 데이터 요금에서 계산하지 않거나 다른 서비스보다 저렴하게 계산되도록 하는 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분 오페라 보신 적 있으신가요? 오늘은 오페라에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오페라의 여자 주인공을 부르는 말은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리모 우오모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카스트라토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세콘다 돈나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리마 돈나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리마 돈나는 제1의 여인이라는 이탈리아어로 오페라의 여자 주인공을 가리킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분 심리학에 관심있으신가요? 오늘은 범죄 심리학에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사소한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무질서를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방치하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>큰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이어질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능성이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>높으므로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경범죄로부터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발본색원해야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한다는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범죄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>심리학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이론은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무엇일까요?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베르테르 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨진 유리창 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코쿠닝 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨진 유리창 이론은 깨진 유리창 하나를 방치해 두면 그로부터 범죄가 확산된다는 이론입니다.</t>
-  </si>
-  <si>
-    <t>오늘은 문화재에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계문화유산으로 지정되지 않은 것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈민정음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종묘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수원화성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창덕궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈민정음은 세계문화유산이 아니라 세계기록유산으로 1997년에 지정되었습니다.  유니스코 유산은 세계문화유산, 세계기록유산, 인류무형문화유산으로 구분됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 상식 문제를 하나 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼인관계를 유지하지만 부부가 서로의 삶에 간섭하지 않고 독립적으로 사는 풍습을 무엇이라고 할까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸혼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인가구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼윈도 부부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결혼을 졸업한다'는  뜻인 졸혼에 대한 설명입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슬람신도를 가리키는 무슬림이라는 용어는 ‘절대순종하는 이’라는 의미를 지니고 있는데요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,319 +614,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슬림이 먹고 쓸 수 있는 제품을 총칭하는 말은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할랄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할랄(halal)은 아랍어로 '허용된 것'이란 뜻으로 무슬림이 먹고 쓸 수 있는 제품을 총칭합니다 반대로 허용되지 않는 것은 하람(haram)이라고 부릅니다. 돼지고기나 알코올 및 이를 이용한 가공품, 이슬람 율법에 따라 도축되지 않은 고기 등은 모두 하람에 속합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 마케팅 기법에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업이 고객의 수요를 의도적으로 감소시키는 마케팅 기법은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니치마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버즈마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데카르트마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디마케팅(demarketing)은 고의로 고객의 수요를 줄이는 마케팅 기법으로, 제품에 대한 이미지와 브랜드 가치를 향상시키고 특정 고객들의 충성도를 강화시키는 효과를 노립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨가 점점 더워지네요!</t>
-  </si>
-  <si>
-    <t>구름 아래에서는 관측할 수 없는 구름 위에서 치며 규모가 일번 번개보다 훨씬 큰 번개가 있다고 해요. 이 번개의 이름은 무엇일까요?</t>
-  </si>
-  <si>
-    <t>사이오닉 스톰</t>
-  </si>
-  <si>
-    <t>메가번개</t>
-  </si>
-  <si>
-    <t>파워 번개</t>
-  </si>
-  <si>
-    <t>슈퍼 번개</t>
-  </si>
-  <si>
-    <t>메가번개는 구름보다, 위에서 치는 번개의 일종으로, 예전부터 여러 비행사들에 의해 보고되었다고해요. 현대에 들어오고 나서야, 메가번개를 우주에서 촬영하는 것에 성공함으로써 실존한다는 것이 밝혀졌다고 해요. 구름 아래에서 관측할 수 없고, 지속 시간이 매우 짧기 때문에 아직까지 메가번개에 대해 잘 알려진 사실은 없다고 해요. 다만 일반 번개와 비교할 수 없을 정도로 에너지량과 그 규모가 크다고 하네요.</t>
-  </si>
-  <si>
-    <t>세상이 많이 발전했지만 아직도 범죄는 끊이지 않는데요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인질이 인질범에게 동조되어 인질범을 이해하고 호감을 나타내는 현상을 무엇이라고 할까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일 마스크 증후군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탕달 증후군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리마 증후군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톡홀름 증후군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톡홀름 증후군은 공포심으로 인해 극한 상황을 유발한 대상에게 긍정적인 감정을 가지는 현상입니다. 범죄심리학 용어로, 인질이 인질범에게 동화 혹은 동조하는 비합리적인 현상을 뜻합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 의학과 관련된 퀴즈를 분비했어요.</t>
-  </si>
-  <si>
-    <t>후천성 면역 결핍증을 일으키는 에이즈 바이러스가 파괴하는 림프구는 무엇일까요?</t>
-  </si>
-  <si>
-    <t>T 림프구</t>
-  </si>
-  <si>
-    <t>A 림프구</t>
-  </si>
-  <si>
-    <t>C 림프구</t>
-  </si>
-  <si>
-    <t>H 림프구</t>
-  </si>
-  <si>
-    <t>T림프구는 백혈구의 일종으로 림프구 중 3/4, 백혈구 중 3/10을 차지하고 있다고 합니다. 주로 세포성 면역에 관여하는데, 후천선 면역 결핌증 에이즈는 이 면역계 T림프구를 파괴하는 질환이라고 합니다.</t>
-  </si>
-  <si>
-    <t>국회는 삼권분립의 자유민주주의 정치체제 아래에서 입법기능을 담당하는 국가권력기관인데요,</t>
-  </si>
-  <si>
-    <t>다음 중 국회의 권한이 아닌 것은 어떤 것일까요?</t>
-  </si>
-  <si>
-    <t>탄핵소추권</t>
-  </si>
-  <si>
-    <t>긴급명령권</t>
-  </si>
-  <si>
-    <t>예산안 심의,확정권</t>
-  </si>
-  <si>
-    <t>예비비 지출승인권</t>
-  </si>
-  <si>
-    <t>긴급명령권은 대통령의 권한으로 국회의 집회가 불가능한 경우에 한해 예외적으로 인정되는 국가긴급권의 일종입니다.</t>
-  </si>
-  <si>
-    <t>요즈음 SNS가 굉장히 활발한데요. 오늘은 SNS에 관한 퀴즈를 준비했어요.</t>
-  </si>
-  <si>
-    <t>SNS상의 댓글 및 좋아요 수치 등은 어떤 미디어에 속할까요?</t>
-  </si>
-  <si>
-    <t>오운드 미디어</t>
-  </si>
-  <si>
-    <t>쉐어드 미디어</t>
-  </si>
-  <si>
-    <t>언드 미디어</t>
-  </si>
-  <si>
-    <t>페이드 미디어</t>
-  </si>
-  <si>
-    <t>언드 미디어란 소셜미디어 상의 댓글 및 좋아요, 공유 등의 인터랙션 수치나 스크랩, 리뷰 등 소비자의 재생산성이 포함된 콘텐츠를 의미합니다.</t>
-  </si>
-  <si>
-    <t>여러분 평소에 드라마 챙겨보시나요?</t>
-  </si>
-  <si>
-    <t>드라마를 보면 중간에 광고가 나오는 것을 볼 수 있는데요, 드라마나 예능 프로그램의 영상을 광고로 활용하는 광고 기법은 무엇일까요?</t>
-  </si>
-  <si>
-    <t>푸티지 광고</t>
-  </si>
-  <si>
-    <t>텍스트 광고</t>
-  </si>
-  <si>
-    <t>리워드 광고</t>
-  </si>
-  <si>
-    <t>인앱 광고</t>
-  </si>
-  <si>
-    <t>푸티지 광고는 드라마나 예능의 영상을 재편집하여 다른 음성을 삽입하는 등의 방식으로 제작이 됩니다. </t>
-  </si>
-  <si>
-    <t>단군 신화는 우리 민족의 시조이고 고조선의 창업왕인 단군에 관한 신화인데요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단군신화가 기록되지 않은 책은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국여지승람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종실록지리지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼국유사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼국사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[삼국사기]는 단군신화를 전하지 않으며 [단군신화]는 [삼국유사], [제왕운기], [응제시주], [동국여지승람], [세종실록지리지] 등에 기록돼 있습니다.</t>
-  </si>
-  <si>
-    <t>여러분은 SNS를 많이 활용하시나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS에서 타인의 행복한 일상을 보고 느끼는 상대적 박탈감을 느끼는 용어는 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝콘 브레인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초미세 지루함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페인 우울증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노모포비아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페인 우울증이란 사회관계망서비스(SNS)인 카카오스토리, 페이스북, 인스타그램의 앞 글자인 카·페·인에 우울증을 합친 신조어로써,  SNS에 소개된 타인의 행복한 모습을 부러워하며 상대적 박탈감과 우울감을 느끼는 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한민국의 주권은 국민에게 있고, 모든 권력은 국민으로부터 나온다… , 오늘은 대한민국의 오대 국경일중에 하나인 7월 17일, 제헌절입니다.!</t>
-  </si>
-  <si>
-    <t>다음 중 대한민국 5대 국경일이 아닌 것은 무엇일까요?</t>
-  </si>
-  <si>
-    <t>삼일절</t>
-  </si>
-  <si>
-    <t>광복절</t>
-  </si>
-  <si>
-    <t>한글날</t>
-  </si>
-  <si>
-    <t>현충일</t>
-  </si>
-  <si>
-    <t>대한민국의 오대 국경일은 삼일절, 제헌절, 광복절, 개천절, 한글날이 있습니다. 현충일은 경축일이 아닌, 조의를 표하는 날로, 순국 선열과 호국영령을 기리는 날입니다. 그래서 현충일에는 조기를 게양하지요. 국경일인 제헌절은 태극기를  게양하는 날입니다.! 태극기를 게양하며 오늘을 기념해보는건 어떠세요?</t>
-  </si>
-  <si>
-    <t>오늘은 뉴스에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특종 뉴스나 기사를 타 매체보다 앞서 독점 입수해서 먼저 보도하는 것을 무엇이라고 할까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥스로트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠바고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프더레코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿠프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿠프는 언론 매체가 경쟁 상대보다 먼저 특종기사를 보도하는 것으로, 뉴스소스 측이 감추거나 왜곡시키는 사건에 대해 폭로하는 것이나 널리 알려진 사실이지만 중요하게 여겨지지 않는 사항에서 새로운 문제점을 찾아내 재조명함으로써 그 의미를 새롭게 밝혀주는 것을 의미하기도 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즈음 출산률이 낮아지고 있어 많은 문제가 생기고 있는데요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 중 의도적으로 자녀를 두지 않는 맞벌이 부부를 뜻하는 것은?</t>
-  </si>
-  <si>
-    <t>딘트족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딩크족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니트족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀크족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답은 딩크족 이었습니다. 니트족은 취업은 물론 학업이나 가사일을 할 의욕이 전혀 없는 15~34세의 젊은 층이고,  듀크족은 아이가 있는 맞벌이 부부입니다. 딘트족은 수입은 두 배이나 돈 쓸 시간이 없는 신세대 맞벌이 부부를 의미합니다.</t>
+    <t>몇 번이 정답인지는 저도 몰라요. 잘 골라보세요. 행운을 빌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물음표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번째 보너스 퀴즈에요. 벌써 일곱번이나 정답을 맞춰주셨네요. 감사해요. 오늘은 7번째 퀴즈인만큼 행운의 보너스 퀴즈를 드릴게요. 퀴즈는 없어요. 오로지 정답만 있어요. 랜덤한 4개의 물음표 중 한개를 선택 해주세요. 정답을 맞추면 정말 많은 포인트를 드릴게요.</t>
+  </si>
+  <si>
+    <t>고민 많이 하셨나요…? 죄송해요! 그래도 좋은 선택이었어요.. 앞으로도 많은 포인트를 얻을 수 있도록 더 많이 준비해놓을게요. 항상 행운이 가득하길 빌어요.!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +633,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,20 +658,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1138,27 +692,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
-  <dimension ref="A1:L366"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1054,7 @@
     <col min="19" max="19" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1576,7 +1127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1614,7 +1165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1652,7 +1203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1690,7 +1241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1726,7 +1277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1762,917 +1313,710 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>118</v>
+      <c r="F15" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>132</v>
+      <c r="F17" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>138</v>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>153</v>
+      <c r="B22" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="1">
-        <v>70</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="1">
-        <v>50</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="1">
-        <v>30</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="1">
-        <v>30</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="1">
-        <v>40</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="1">
-        <v>50</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K28" s="1">
-        <v>4</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="1">
-        <v>60</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="1">
-        <v>100</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" s="1">
-        <v>4</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="1">
-        <v>40</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="1">
-        <v>40</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">

--- a/rsc/bonus/bonus_revoicequizlist.xlsx
+++ b/rsc/bonus/bonus_revoicequizlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756BB02-11AD-4758-97E8-C8EFA5B476AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2B483-14FD-9F47-A7BF-6BF618513BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
+    <workbookView xWindow="35840" yWindow="-2960" windowWidth="51200" windowHeight="28340" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="257">
   <si>
     <t>OPENMENT</t>
   </si>
@@ -302,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘은 문화재에 관한 퀴즈를 준비했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세계문화유산으로 지정되지 않은 것은 무엇일까요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘은 물고기에 대해 얼마나 알고 계신가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다음 중, 바다에 사는 물고기가 아닌 것은 무엇일까요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +620,381 @@
   </si>
   <si>
     <t>고민 많이 하셨나요…? 죄송해요! 그래도 좋은 선택이었어요.. 앞으로도 많은 포인트를 얻을 수 있도록 더 많이 준비해놓을게요. 항상 행운이 가득하길 빌어요.!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상식</t>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 영화에 관련된 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분! 신호등 잘 지키시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신호등은 운전자 및 보행자의 안전을 책임져주는데요. 이처럼 생활 속 고마움을 주는 최초의 신호등은 어느 나라에서 처음으로 등장했을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신호등의 최초의 등장은 1868년 영국 런던으로, 이때는 오늘날의 신호등과는 다른, 가스를 사용한 전등의 개념에 더 가까운 물건이었다고 해요. 당시에는 경찰관이 수동으로 조작했는데 가스 폭발 사고가 잦아 촛불과 석유를 사용하는 방식으로 바뀌었다고 하네요. 여러분 오늘도 안전운전, 안전보행 하세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 좋아하시나요? 오늘은 올림픽에 관련된 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽의 종목 중 하나인 이것의 기원은 그리스와 페르시아가 전쟁을 벌인 지명인 이곳의 어원이 된 전투며 이 전쟁의 승리를 전하기 위해 쉬지 않고 아테네로 달려 승전보를 전한 직후 숨진 그리스군 전령을 기린다는 명목으로 이 종목이 탄생되었는데요. 이 종목은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철인3종 경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실, 승전보를 전한 전령의 이름은 페이디피데스이며 스파르타에 원군을 요청하기 위해 파견된 정령이었대요. 실제로는 죽지 않고 그리스로 잘 돌아갔다고 하네요. 쿠베르탱 남작이 근대 올림픽을 만들 때 지인 중 한 명이 극적인 스토리텔링을 위해 페이디피데스를 주인공으로 하여 감동적인 스토리로 각색해 당시 젊은이들에게 어필하기 위함이었다고 해요. 여러분도 마라톤 한 번 참가해 보시는 거 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹기 간편하고 맛도 있는 라면은 남녀노소할 것 없이 모두가 좋아하고 즐겨먹는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라면은 중국에서 전시 비상 식량으로 쓴 것으로 유래돼요. 당시 일본이 중일전쟁을 하면서 배워 왔다는 설도 있어요. 현재의 라면은 제2차 세계 대전이 끝난 뒤 일본에서 대만계 일본인인 이 사람이 발명했다고 하는데요. 이 사람은 누구일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무치쿠라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코코후쿠 젠야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안도 모모후쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사스케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안도 모모후쿠는 제2차 세계 대전 후 극심한 식량난에 시달리던 일본을 위해 라면을 개발하기로 결심하고 1948년 일본 굴지의 라면 회사인 닛신 식품을 설립했다고 하네요. 오늘도 라면 한끼 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 갑자기 쌀쌀해졌는데요. 오늘은 소한이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소한은 24절기 가운데 스물세 번째 절기로 이것이라는 뜻의 절기에요. 여기서 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거센 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 추위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소한은 해가 양력으로 바뀌고 처음 나타나는 절기에요. 소한 무렵은 정초한파라 불리는 강추위가 몰려오는 시기랍니다. 농가에서는 소한부터 날이 풀리는 입춘 전까지 약 한달 간 혹한에 대비해 만반의 준비를 해뒀고, 눈이 많이 내리는 지방에서는 땔감과 먹을거리를 충분히 비치해 두었다고 하네요. 날씨가 추운 시기이니 외출 시 따뜻하게 챙겨입으시고 감기 조심하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 속담에 관한 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 속담은 두 가지 뜻으로 쓰이는데요. 행동이 매우 민첩함을 이르는말이기도 하고 어떤 행동을 당장 해치우지 못하여 안달하는 조급한 성질을 이르는말로, 이것에 콩 볶아 먹겠다라는 속담인데요. 여기서 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번갯불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모닥불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번갯불에 콩 볶아 먹겠다라는 속담은 번쩍하는 번갯불에 콩을 볶아 먹을 만큼 행동이 무척 빠르다는 말이에요. 또 성질이 조급하여 무엇이든지 당장 해치우려하는 행동을 이르는 말이기도 해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나치게 참견하기를 좋아하는 사람에게 오지랖이 넓다라는 말을 많이 하는데요. 여기서 오지랖이란 웃옷의 어느 한 부분을 의미하는데요. 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷의 앞자락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷의 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷의 목둘레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷의 팔꿈치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오지랖이란 우리말로서 윗옷의 앞자락을 말해요. 즉 오지랖이 넓다는 것은 옷의 앞자락이 넓다는 뜻으로서 웃옷의 앞자락이 넓으면 안에 있는 다른 옷을 감싸버릴 수가 있는 것처럼 사람도 무슨일이나 말이든 앞장서서 간섭하고 참견하고 다니는 것을 비유하여 오지랖이 넓다고 말해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 출생률의 급격한 상승기를 말해요. 우리나라는 육이오 전쟁이 끝난 후, 이 시기를 맞이했는데요. 대체로 경제적, 사회적으로 안정된 상황에서 일어나는 경향이 있어요. 최근 우리나라는 이 시기에 태어난 연령대가 노년층으로 진입하면서 고령 사회가 빠르게 진행되고 있어요. 아기를 가지고 싶어 하는 어떤 시기의 공통된 사회적 경향인, 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨붐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스붐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트붐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이비붐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리나라에서는 육이오 사변이 끝난 후, 1955년 이후 베이비 붐이 일어나 인구 증가율이 3퍼센트 수준까지 증가하기도 했다고 하네요. 요즘은 출산률이 많이 떨어졌다고 하죠? 그만큼 요즘은 불안정한 시기인 거 같아요. 이 어려운 시기를 살아가는 우리 모두 힘내도록 해봐요! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루에 전기 얼마나 사용하시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매년 여름 무분별한 전력 소비량 때문에 이것에 대한 우려가 심각한데요, 이것은 전력 공급이 중단되어 해당 지역이 어두워지는 일인데요. 우리나라에서는 2011년 최초로 이것 사태가 벌어져 모두를 공포에 떨게 했어요. 발전소나 송전소, 변전소 등의 고장이나 전력과부하로 특정 지역에서 대규모로 전기가 완전히 끊기는 현상인 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉트릭아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기는 발전소에서 생산된 이후 송전탑을 거쳐 곧바로 필요한 지역에 보내지는데, 여기에는 저장의 개념이 없다고 해요. 다시 말해 전기라는 에너지를 저장 할 수 없다는 말이에요. 그렇기 때문에 현재를 기준으로 현재 생산되고 있는 전기보다 사용되는 전기가 많아질 때 전력공급이 차단되는 현상이 발생한다고 하네요. 전기 아껴써야 되겠네요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제용어에 관한 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 정상가격보다 낮은 가격으로 수출하는 것을 의미하는 경제용어에요. 엄밀한 뜻으로는 가격 차별, 즉 두 개의 시장 간의 가격 차를 설정하는 것을 뜻하는데요. 기업이 외국 시장에 상품을 판매할 때 자기 나라에서 판매하는 가격보다 낮은 가격에 판매하는 행위를 가리키는 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리피킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이퍼링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베블런재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">덤핑을 하는 이유로는 수입국시장에서 경쟁기업을 무너뜨려 시장지배력을 행사하기 위함이나 새로운 시장접근을 위해 수출초기에 시장개척 차원에서 가격을 어느 정도 낮추는 등의 이유가 있다고 하네요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루에 인터넷을 얼마나 이용하시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 용어는 인터넷이 연결되는 곳이면 장소에 구애받지 않고 자유롭게 인터넷을 이용하는 사람을 일컫는 말이에요.  최첨단 네트워크에 접속할 수 있는 정보통신 환경을 의미하는 유비쿼터스와 유목민을 합성한 신조어인데요. 네트워크 접속만으로 모든 일을 처리할 수 있는 사람을 의미하는 이 용어는 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크파탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카칭족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이미피케이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비노마드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비노마드족은 휴대폰과 노트북 등 첨단 장비를 갖추고 여러 나라를 옮겨 다니며 일하는 사람들을 일컫는데요. 노마드족이라는 신조어가 처음 생겨났을 무렵 양산된 디지털노마드족과 유로노마드족과 의미는 비슷하지만 이들보다 좀더 자유자재로 최첨단 정보통신장비를 다룰 줄 안다는 것이 특징이에요. 시간과 장소에 구애 받지 않고 어디서나 자신의 업무를 처리하는 정보화 사회의 새로운 인간형으로 꼽히는 유비노마드족은 세계 각국을 자유로이 오가는 유로노마드족보다 한 단계 더 발전된 인간 군상이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 한자성어에 관한 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 유교에서 강조하는 올바른 선비의 길이에요. 몸과 마음을 닦아 수양하고 집안을 가지런하게 하며 나라를 다스리고 천하를 평안하게 한다.라는 뜻을 지닌 이 말은 선비가 세상에서 해야 할 일의 순서를 알려주는 표현이라고 할 수 있는데요. 이 말은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이도살삼사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능서불택필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신제가치국평천하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연천리래상회 무연대면불상봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수신제가치국평천하는 중국고전 사서중 하나인 대학에서 유래하는데요. 자기 자신을 먼저 수양하고, 이후 집안을 잘 다스리며, 이후에 나라를 다스리고, 이후에 천하를 평정한다는 말이에요. 큰일을 도모하려면, 우선 자기 자신과 그 주위부터 잘 다스려야 한다는 뜻이죠. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 음악회나 연주회에서 악보를 넘겨주는 사람을 일컫는 말이에요. 숨은 연주자 혹은 보이지 않은 연주자라고도 불리는 이 사람을 뭐라고 부를까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시크릿 터너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 터너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐도우 터너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이드 터너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 터너는 악기를 연주할 때 악보를 넘기면서 연주가 끊어지는 것을 막기 위해 대신 악보를 넘겨주는 사람을 말해요. 단순히 악보를 넘겨주기만 하면 되는게 아니라, 악보 자체를 읽으면서 연주자와 호흡을 맞춰야해서 이것 역시 전문 음악인들이 맡는다고 하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분은 남들에게 참견하고 간섭하기 좋아하는 사람이 주변에 있으신가요?+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화재에 관한 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기에 대해 얼마나 알고 계신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라의 어느 시기에 관한 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상식에 관련된 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40번째 보너스 퀴즈에요. 벌써 40번이나 정답을 맞춰주셨네요. 대단해요. 오늘은 7번째 퀴즈인만큼 행운의 보너스 퀴즈를 드릴게요. 퀴즈는 없어요. 오로지 정답만 있어요. 랜덤한 4개의 물음표 중 한개를 선택 해주세요. 정답을 맞추면 정말 많은 포인트를 드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연주회 가보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분은 남들에게 참견하고 간섭하기 좋아하는 사람이 주변에 있으신가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,9 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1025,36 +1391,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
-  <dimension ref="A1:M366"/>
+  <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="137" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="153.125" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="68.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="153.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="30.375" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="135.25" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="135.1640625" customWidth="1"/>
     <col min="13" max="13" width="43" customWidth="1"/>
-    <col min="14" max="14" width="26.125" customWidth="1"/>
-    <col min="15" max="15" width="41.75" customWidth="1"/>
-    <col min="16" max="16" width="36.25" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" customWidth="1"/>
+    <col min="15" max="15" width="41.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.1640625" customWidth="1"/>
     <col min="17" max="17" width="35" customWidth="1"/>
-    <col min="18" max="18" width="29.25" customWidth="1"/>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="18" max="18" width="29.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1127,7 +1493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1165,7 +1531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1203,7 +1569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1241,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1277,7 +1643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,47 +1679,47 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>700</v>
       </c>
       <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
         <v>160</v>
       </c>
-      <c r="F8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" t="s">
-        <v>162</v>
-      </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -1384,7 +1750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1422,149 +1788,151 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1">
         <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C14" s="1">
         <v>50</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1579,29 +1947,29 @@
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1634,16 +2002,16 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -1652,35 +2020,35 @@
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>139</v>
+      <c r="L17" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
@@ -1690,33 +2058,35 @@
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C19" s="1">
         <v>30</v>
       </c>
@@ -1725,2097 +2095,4110 @@
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1">
         <v>30</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="K21" s="1">
         <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K22" s="1">
         <v>3</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="1" customFormat="1">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="1">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="1">
+        <v>40</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41">
+        <v>700</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" t="s">
+        <v>160</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="1">
+        <v>40</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1">
+        <v>50</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="1" customFormat="1">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="1">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="1">
+        <v>30</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="1" customFormat="1">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" s="1">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="1">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="1">
+        <v>30</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="1">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="1">
+        <v>4</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="1">
+        <v>50</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1">
+        <v>50</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="1">
+        <v>50</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="1">
+        <v>40</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="1">
+        <v>40</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="1">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="1">
+        <v>50</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67" s="1">
+        <v>3</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="1">
+        <v>50</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="1">
+        <v>30</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="1">
+        <v>30</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="1">
+        <v>50</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="1">
+        <v>40</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="1">
+        <v>3</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1">
+        <v>40</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74" s="1">
+        <v>3</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="1">
+        <v>50</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" s="1">
+        <v>50</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1">
+        <v>50</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="1">
+        <v>30</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K80" s="1">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="1">
+        <v>30</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K81" s="1">
+        <v>3</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="1">
+        <v>30</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="1">
+        <v>20</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="1">
+        <v>20</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K84" s="1">
+        <v>4</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="1">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="1">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K86" s="1">
+        <v>2</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="1">
+        <v>40</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K87" s="1">
+        <v>4</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="1">
+        <v>50</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K88" s="1">
+        <v>3</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="1">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="1">
+        <v>30</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" s="1">
+        <v>4</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91">
+        <v>700</v>
+      </c>
+      <c r="E91" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" t="s">
+        <v>160</v>
+      </c>
+      <c r="H91" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" t="s">
+        <v>160</v>
+      </c>
+      <c r="J91" t="s">
+        <v>160</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="1">
+        <v>30</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="1">
+        <v>50</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>365</v>
       </c>
